--- a/Lab#6/Lab6_ScrumInPractice.xlsx
+++ b/Lab#6/Lab6_ScrumInPractice.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fammy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68322257-4814-9E4F-BB94-0E33FFC6C66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C3D13AC-514A-4944-B23C-419705D0EF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17280" xr2:uid="{CD75D67B-5162-1D41-A3DF-A5B562174E0D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TaskBoard" sheetId="1" r:id="rId1"/>
+    <sheet name="GoodBadTry" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Story</t>
   </si>
@@ -48,6 +49,15 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Try</t>
   </si>
 </sst>
 </file>
@@ -1556,6 +1566,725 @@
         <a:xfrm>
           <a:off x="2202600" y="19347600"/>
           <a:ext cx="2001100" cy="2001100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2260600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1917336</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="รูปภาพ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2766EE0-6F6D-EB72-768F-43A19F5799D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="8572" b="7143"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="647699"/>
+          <a:ext cx="2184400" cy="1841137"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2309000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4419600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1910602</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="รูปภาพ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2EA576-1AE0-980D-D3A9-61A09DCCF542}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="7269" b="6419"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2309000" y="660400"/>
+          <a:ext cx="2110600" cy="1821702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>58700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1918494</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="รูปภาพ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15EFF788-93A4-B283-E874-A0AFB02801D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="10046" r="10695" b="15068"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="58700" y="2590800"/>
+          <a:ext cx="2227300" cy="1867694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2324100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4419600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1917700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="รูปภาพ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2AA61B-50A8-61A5-0906-838C4BF9D35E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4683" t="11242" r="5127" b="8406"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="2590800"/>
+          <a:ext cx="2095500" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1911577</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="รูปภาพ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B4F7DEF-470A-D288-0AD1-0E030AE436F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="6426" r="3929" b="9942"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104700" y="4546600"/>
+          <a:ext cx="2181300" cy="1898877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2298700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4470400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1917700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="รูปภาพ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F16DD18-AC22-B7AC-7310-20AB7125FB90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="2155" t="6529" r="4373" b="10932"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2298700" y="4533900"/>
+          <a:ext cx="2171700" cy="1917700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2139003</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1917700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="รูปภาพ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8F187F-0DB6-947E-D6FC-89A82B3351BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6250" t="7500" r="8750" b="17084"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4559300" y="647700"/>
+          <a:ext cx="2075503" cy="1841500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2220100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4116619</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1930400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="รูปภาพ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE77FCF-FD66-00F1-E083-31B86B6078B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="7162" r="14921" b="9088"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715900" y="635000"/>
+          <a:ext cx="1896519" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2130923</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1917700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="รูปภาพ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3495E49F-7828-5E4A-A8AC-1F9FC4ADE4CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="2657" t="8074" r="11925" b="14845"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="2603500"/>
+          <a:ext cx="2054723" cy="1854200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4174088</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1930400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="รูปภาพ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01D37B0-AF37-00D7-25DD-ABA7994805B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4820" t="7736" r="6847" b="9348"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667500" y="2590800"/>
+          <a:ext cx="2002388" cy="1879600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2062356</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1943100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="รูปภาพ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31296A19-A664-C9F6-326D-400D52AE3363}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="2398" t="6149" r="9685" b="8435"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4597400" y="4572000"/>
+          <a:ext cx="1960756" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2056656</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1917700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="รูปภาพ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BCB44D4-A457-8879-22D1-F84960106185}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7394" t="5986" r="3873" b="9859"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8826500" y="635000"/>
+          <a:ext cx="1955056" cy="1854200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2159000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4013200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1892713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="รูปภาพ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE4BB86-FA75-3C8A-2461-E2DB8D1B7F5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="5348" t="5348" r="8032" b="9793"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10883900" y="647700"/>
+          <a:ext cx="1854200" cy="1816513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2091975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1981200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="รูปภาพ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F6FE4C3-6E6E-ED28-247C-1C203CFBECDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="5062" t="4711" r="6558" b="9021"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="2590800"/>
+          <a:ext cx="1977675" cy="1930400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1886,7 +2615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A463730F-68FD-2342-9797-372FE4D4F7A8}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1926,4 +2655,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF245EE-9E16-0C4B-BC78-F5F020135EA3}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="50.5703125" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="155" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:3" ht="157" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="158" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>